--- a/docs/Ejemplo_Gestion_Cambio.xlsx
+++ b/docs/Ejemplo_Gestion_Cambio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdgut\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE2293B-8B87-445A-BAA3-7F1AB1CD8546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D0E50F-CF25-4FA9-BCE1-796A8639F07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanConfigArchivos" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="167">
   <si>
     <t>Archivo</t>
   </si>
@@ -448,6 +448,81 @@
   </si>
   <si>
     <t>:p</t>
+  </si>
+  <si>
+    <t>BaseController.php</t>
+  </si>
+  <si>
+    <t>C:\xampp\htdocs\collar\vista/control/BaseController.php</t>
+  </si>
+  <si>
+    <t>v1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refactorizacion del codigo reduciendo duplicidad y mantenibilidad a futuro </t>
+  </si>
+  <si>
+    <t>Ya no entendia ni mierda jajajaj</t>
+  </si>
+  <si>
+    <t>Notification.php</t>
+  </si>
+  <si>
+    <t>C:\xampp\htdocs\collar\vista/components/Notification.php</t>
+  </si>
+  <si>
+    <t>v1.8</t>
+  </si>
+  <si>
+    <t>&gt;:(</t>
+  </si>
+  <si>
+    <t>Implementacion de sistema mas legible y amigable con el usuario de informe de errores y operaciones en la plataforma y limitacion de caracteres en inputs</t>
+  </si>
+  <si>
+    <t>C:\xampp\htdocs\collar\vista/components/propietario_modal.php</t>
+  </si>
+  <si>
+    <t>C:\xampp\htdocs\collar\vista/components/perfil_modal.php</t>
+  </si>
+  <si>
+    <t>perfil_modal.php</t>
+  </si>
+  <si>
+    <t>propietario_modal.php</t>
+  </si>
+  <si>
+    <t>plan_model.php</t>
+  </si>
+  <si>
+    <t>propietario_model.php</t>
+  </si>
+  <si>
+    <t>residencia_model.php</t>
+  </si>
+  <si>
+    <t>C:\xampp\htdocs\collar\modelo\plan_model.php</t>
+  </si>
+  <si>
+    <t>C:\xampp\htdocs\collar\modelo\residencia_model.php</t>
+  </si>
+  <si>
+    <t>C:\xampp\htdocs\collar\modelo\propietario_model.php</t>
+  </si>
+  <si>
+    <t>C:\xampp\htdocs\collar\control/propietario_controller.php</t>
+  </si>
+  <si>
+    <t>propietario_controller.php</t>
+  </si>
+  <si>
+    <t>v1.9</t>
+  </si>
+  <si>
+    <t>Implementacion de visualizacion del perfil con los datos personales del propietario para el usuario</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaa</t>
   </si>
 </sst>
 </file>
@@ -511,7 +586,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -547,6 +622,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -569,8 +655,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,10 +961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,7 +973,7 @@
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="50.85546875" customWidth="1"/>
+    <col min="5" max="5" width="58.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1298,23 +1384,6 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="4">
-        <v>45766</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>117</v>
@@ -1554,88 +1623,279 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="3"/>
+      <c r="A40" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="4">
+        <v>45782</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="3"/>
+      <c r="A41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="4">
+        <v>45782</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="3"/>
+      <c r="A42" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="4">
+        <v>45782</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="3"/>
+      <c r="A43" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="4">
+        <v>45782</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="3"/>
+      <c r="A44" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="4">
+        <v>45782</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="3"/>
+      <c r="A45" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="4">
+        <v>45782</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="3"/>
+      <c r="A46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="4">
+        <v>45782</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="3"/>
+      <c r="A47" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="4">
+        <v>45782</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="3"/>
+      <c r="A48" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="4">
+        <v>45782</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="3"/>
+      <c r="A49" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="4">
+        <v>45782</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="3"/>
+      <c r="A50" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="4">
+        <v>45782</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="3"/>
+      <c r="A51" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="4">
+        <v>45782</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="4">
+        <v>45782</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="4">
+        <v>45782</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="4">
+        <v>45782</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="4">
+        <v>45782</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D56" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1647,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D16" sqref="A1:D16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1820,30 +2080,54 @@
       <c r="B12" s="4">
         <v>45779</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="4">
+        <v>45782</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="4">
+        <v>45782</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="4">
+        <v>45783</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
